--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl5-Gpr75.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl5-Gpr75.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,22 +534,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.202688333333333</v>
+        <v>0.1780343333333333</v>
       </c>
       <c r="H2">
-        <v>6.608065</v>
+        <v>0.534103</v>
       </c>
       <c r="I2">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736916</v>
       </c>
       <c r="J2">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736915</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -564,22 +564,22 @@
         <v>0.6346120000000001</v>
       </c>
       <c r="O2">
-        <v>0.2286138753678071</v>
+        <v>0.2472266416925472</v>
       </c>
       <c r="P2">
-        <v>0.2286138753678071</v>
+        <v>0.2472266416925472</v>
       </c>
       <c r="Q2">
-        <v>0.4659508161977778</v>
+        <v>0.03766090811511111</v>
       </c>
       <c r="R2">
-        <v>4.19355734578</v>
+        <v>0.3389481730360001</v>
       </c>
       <c r="S2">
-        <v>0.0444942306156701</v>
+        <v>0.0009022957747536522</v>
       </c>
       <c r="T2">
-        <v>0.04449423061567011</v>
+        <v>0.000902295774753652</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.202688333333333</v>
+        <v>0.1780343333333333</v>
       </c>
       <c r="H3">
-        <v>6.608065</v>
+        <v>0.534103</v>
       </c>
       <c r="I3">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736916</v>
       </c>
       <c r="J3">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736915</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.080522</v>
+        <v>0.644104</v>
       </c>
       <c r="N3">
-        <v>0.241566</v>
+        <v>1.932312</v>
       </c>
       <c r="O3">
-        <v>0.08702221107873737</v>
+        <v>0.7527733583074528</v>
       </c>
       <c r="P3">
-        <v>0.08702221107873737</v>
+        <v>0.7527733583074527</v>
       </c>
       <c r="Q3">
-        <v>0.1773648699766666</v>
+        <v>0.1146726262373333</v>
       </c>
       <c r="R3">
-        <v>1.59628382979</v>
+        <v>1.032053636136</v>
       </c>
       <c r="S3">
-        <v>0.01693679494384752</v>
+        <v>0.002747374699983264</v>
       </c>
       <c r="T3">
-        <v>0.01693679494384752</v>
+        <v>0.002747374699983263</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>4.833451</v>
+      </c>
+      <c r="H4">
+        <v>14.500353</v>
+      </c>
+      <c r="I4">
+        <v>0.09908483984804967</v>
+      </c>
+      <c r="J4">
+        <v>0.09908483984804965</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>2.202688333333333</v>
-      </c>
-      <c r="H4">
-        <v>6.608065</v>
-      </c>
-      <c r="I4">
-        <v>0.194626115952434</v>
-      </c>
-      <c r="J4">
-        <v>0.194626115952434</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>0.6332446666666667</v>
+        <v>0.2115373333333334</v>
       </c>
       <c r="N4">
-        <v>1.899734</v>
+        <v>0.6346120000000001</v>
       </c>
       <c r="O4">
-        <v>0.6843639135534556</v>
+        <v>0.2472266416925472</v>
       </c>
       <c r="P4">
-        <v>0.6843639135534556</v>
+        <v>0.2472266416925472</v>
       </c>
       <c r="Q4">
-        <v>1.394840639412222</v>
+        <v>1.022455335337334</v>
       </c>
       <c r="R4">
-        <v>12.55356575471</v>
+        <v>9.202098018036001</v>
       </c>
       <c r="S4">
-        <v>0.1331950903929163</v>
+        <v>0.0244964121982772</v>
       </c>
       <c r="T4">
-        <v>0.1331950903929163</v>
+        <v>0.02449641219827719</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,45 +732,45 @@
         <v>14.500353</v>
       </c>
       <c r="I5">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804967</v>
       </c>
       <c r="J5">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804965</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2115373333333334</v>
+        <v>0.644104</v>
       </c>
       <c r="N5">
-        <v>0.6346120000000001</v>
+        <v>1.932312</v>
       </c>
       <c r="O5">
-        <v>0.2286138753678071</v>
+        <v>0.7527733583074528</v>
       </c>
       <c r="P5">
-        <v>0.2286138753678071</v>
+        <v>0.7527733583074527</v>
       </c>
       <c r="Q5">
-        <v>1.022455335337334</v>
+        <v>3.113245122904</v>
       </c>
       <c r="R5">
-        <v>9.202098018036001</v>
+        <v>28.019206106136</v>
       </c>
       <c r="S5">
-        <v>0.09763554843825294</v>
+        <v>0.07458842764977247</v>
       </c>
       <c r="T5">
-        <v>0.09763554843825295</v>
+        <v>0.07458842764977246</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,51 +788,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.833451</v>
+        <v>35.63223</v>
       </c>
       <c r="H6">
-        <v>14.500353</v>
+        <v>106.89669</v>
       </c>
       <c r="I6">
-        <v>0.4270762143425078</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="J6">
-        <v>0.4270762143425078</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.080522</v>
+        <v>0.2115373333333334</v>
       </c>
       <c r="N6">
-        <v>0.241566</v>
+        <v>0.6346120000000001</v>
       </c>
       <c r="O6">
-        <v>0.08702221107873737</v>
+        <v>0.2472266416925472</v>
       </c>
       <c r="P6">
-        <v>0.08702221107873737</v>
+        <v>0.2472266416925472</v>
       </c>
       <c r="Q6">
-        <v>0.389199141422</v>
+        <v>7.537546914920001</v>
       </c>
       <c r="R6">
-        <v>3.502792272798</v>
+        <v>67.83792223428001</v>
       </c>
       <c r="S6">
-        <v>0.0371651164712218</v>
+        <v>0.1805876988561214</v>
       </c>
       <c r="T6">
-        <v>0.0371651164712218</v>
+        <v>0.1805876988561213</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.833451</v>
+        <v>35.63223</v>
       </c>
       <c r="H7">
-        <v>14.500353</v>
+        <v>106.89669</v>
       </c>
       <c r="I7">
-        <v>0.4270762143425078</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="J7">
-        <v>0.4270762143425078</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6332446666666667</v>
+        <v>0.644104</v>
       </c>
       <c r="N7">
-        <v>1.899734</v>
+        <v>1.932312</v>
       </c>
       <c r="O7">
-        <v>0.6843639135534556</v>
+        <v>0.7527733583074528</v>
       </c>
       <c r="P7">
-        <v>0.6843639135534556</v>
+        <v>0.7527733583074527</v>
       </c>
       <c r="Q7">
-        <v>3.060757067344667</v>
+        <v>22.95086187192</v>
       </c>
       <c r="R7">
-        <v>27.546813606102</v>
+        <v>206.55775684728</v>
       </c>
       <c r="S7">
-        <v>0.2922755494330331</v>
+        <v>0.5498663396722242</v>
       </c>
       <c r="T7">
-        <v>0.2922755494330331</v>
+        <v>0.5498663396722242</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,22 +906,22 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>1.031759666666667</v>
+        <v>0.5521946666666667</v>
       </c>
       <c r="H8">
-        <v>3.095279</v>
+        <v>1.656584</v>
       </c>
       <c r="I8">
-        <v>0.09116467976013157</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="J8">
-        <v>0.09116467976013157</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,27 +936,27 @@
         <v>0.6346120000000001</v>
       </c>
       <c r="O8">
-        <v>0.2286138753678071</v>
+        <v>0.2472266416925472</v>
       </c>
       <c r="P8">
-        <v>0.2286138753678071</v>
+        <v>0.2472266416925472</v>
       </c>
       <c r="Q8">
-        <v>0.2182556885275556</v>
+        <v>0.1168097872675556</v>
       </c>
       <c r="R8">
-        <v>1.964301196748</v>
+        <v>1.051288085408</v>
       </c>
       <c r="S8">
-        <v>0.02084151073662876</v>
+        <v>0.002798577697044398</v>
       </c>
       <c r="T8">
-        <v>0.02084151073662876</v>
+        <v>0.002798577697044398</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>1.031759666666667</v>
+        <v>0.5521946666666667</v>
       </c>
       <c r="H9">
-        <v>3.095279</v>
+        <v>1.656584</v>
       </c>
       <c r="I9">
-        <v>0.09116467976013157</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="J9">
-        <v>0.09116467976013157</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.080522</v>
+        <v>0.644104</v>
       </c>
       <c r="N9">
-        <v>0.241566</v>
+        <v>1.932312</v>
       </c>
       <c r="O9">
-        <v>0.08702221107873737</v>
+        <v>0.7527733583074528</v>
       </c>
       <c r="P9">
-        <v>0.08702221107873737</v>
+        <v>0.7527733583074527</v>
       </c>
       <c r="Q9">
-        <v>0.08307935187933332</v>
+        <v>0.3556707935786667</v>
       </c>
       <c r="R9">
-        <v>0.7477141669139998</v>
+        <v>3.201037142208</v>
       </c>
       <c r="S9">
-        <v>0.007933352005011666</v>
+        <v>0.008521309503966606</v>
       </c>
       <c r="T9">
-        <v>0.007933352005011666</v>
+        <v>0.008521309503966604</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>7.585023666666667</v>
+      </c>
+      <c r="H10">
+        <v>22.755071</v>
+      </c>
+      <c r="I10">
+        <v>0.155491563947857</v>
+      </c>
+      <c r="J10">
+        <v>0.1554915639478569</v>
+      </c>
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="F10">
+      <c r="L10">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G10">
-        <v>1.031759666666667</v>
-      </c>
-      <c r="H10">
-        <v>3.095279</v>
-      </c>
-      <c r="I10">
-        <v>0.09116467976013157</v>
-      </c>
-      <c r="J10">
-        <v>0.09116467976013157</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
       <c r="M10">
-        <v>0.6332446666666667</v>
+        <v>0.2115373333333334</v>
       </c>
       <c r="N10">
-        <v>1.899734</v>
+        <v>0.6346120000000001</v>
       </c>
       <c r="O10">
-        <v>0.6843639135534556</v>
+        <v>0.2472266416925472</v>
       </c>
       <c r="P10">
-        <v>0.6843639135534556</v>
+        <v>0.2472266416925472</v>
       </c>
       <c r="Q10">
-        <v>0.6533563061984444</v>
+        <v>1.604515679716889</v>
       </c>
       <c r="R10">
-        <v>5.880206755785999</v>
+        <v>14.440641117452</v>
       </c>
       <c r="S10">
-        <v>0.06238981701849115</v>
+        <v>0.03844165716635062</v>
       </c>
       <c r="T10">
-        <v>0.06238981701849115</v>
+        <v>0.03844165716635061</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,365 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4219816666666667</v>
+        <v>7.585023666666667</v>
       </c>
       <c r="H11">
-        <v>1.265945</v>
+        <v>22.755071</v>
       </c>
       <c r="I11">
-        <v>0.03728564388507135</v>
+        <v>0.155491563947857</v>
       </c>
       <c r="J11">
-        <v>0.03728564388507136</v>
+        <v>0.1554915639478569</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2115373333333334</v>
+        <v>0.644104</v>
       </c>
       <c r="N11">
-        <v>0.6346120000000001</v>
+        <v>1.932312</v>
       </c>
       <c r="O11">
-        <v>0.2286138753678071</v>
+        <v>0.7527733583074528</v>
       </c>
       <c r="P11">
-        <v>0.2286138753678071</v>
+        <v>0.7527733583074527</v>
       </c>
       <c r="Q11">
-        <v>0.08926487648222224</v>
+        <v>4.885544083794668</v>
       </c>
       <c r="R11">
-        <v>0.8033838883400002</v>
+        <v>43.969896754152</v>
       </c>
       <c r="S11">
-        <v>0.008524015544150139</v>
+        <v>0.1170499067815063</v>
       </c>
       <c r="T11">
-        <v>0.008524015544150141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>0.4219816666666667</v>
-      </c>
-      <c r="H12">
-        <v>1.265945</v>
-      </c>
-      <c r="I12">
-        <v>0.03728564388507135</v>
-      </c>
-      <c r="J12">
-        <v>0.03728564388507136</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.080522</v>
-      </c>
-      <c r="N12">
-        <v>0.241566</v>
-      </c>
-      <c r="O12">
-        <v>0.08702221107873737</v>
-      </c>
-      <c r="P12">
-        <v>0.08702221107873737</v>
-      </c>
-      <c r="Q12">
-        <v>0.03397880776333333</v>
-      </c>
-      <c r="R12">
-        <v>0.30580926987</v>
-      </c>
-      <c r="S12">
-        <v>0.003244679172373312</v>
-      </c>
-      <c r="T12">
-        <v>0.003244679172373313</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.4219816666666667</v>
-      </c>
-      <c r="H13">
-        <v>1.265945</v>
-      </c>
-      <c r="I13">
-        <v>0.03728564388507135</v>
-      </c>
-      <c r="J13">
-        <v>0.03728564388507136</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.6332446666666667</v>
-      </c>
-      <c r="N13">
-        <v>1.899734</v>
-      </c>
-      <c r="O13">
-        <v>0.6843639135534556</v>
-      </c>
-      <c r="P13">
-        <v>0.6843639135534556</v>
-      </c>
-      <c r="Q13">
-        <v>0.2672176398477778</v>
-      </c>
-      <c r="R13">
-        <v>2.40495875863</v>
-      </c>
-      <c r="S13">
-        <v>0.0255169491685479</v>
-      </c>
-      <c r="T13">
-        <v>0.02551694916854791</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>2.827656666666666</v>
-      </c>
-      <c r="H14">
-        <v>8.48297</v>
-      </c>
-      <c r="I14">
-        <v>0.2498473460598554</v>
-      </c>
-      <c r="J14">
-        <v>0.2498473460598555</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.2115373333333334</v>
-      </c>
-      <c r="N14">
-        <v>0.6346120000000001</v>
-      </c>
-      <c r="O14">
-        <v>0.2286138753678071</v>
-      </c>
-      <c r="P14">
-        <v>0.2286138753678071</v>
-      </c>
-      <c r="Q14">
-        <v>0.5981549508488889</v>
-      </c>
-      <c r="R14">
-        <v>5.383394557640001</v>
-      </c>
-      <c r="S14">
-        <v>0.05711857003310514</v>
-      </c>
-      <c r="T14">
-        <v>0.05711857003310516</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>2.827656666666666</v>
-      </c>
-      <c r="H15">
-        <v>8.48297</v>
-      </c>
-      <c r="I15">
-        <v>0.2498473460598554</v>
-      </c>
-      <c r="J15">
-        <v>0.2498473460598555</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M15">
-        <v>0.080522</v>
-      </c>
-      <c r="N15">
-        <v>0.241566</v>
-      </c>
-      <c r="O15">
-        <v>0.08702221107873737</v>
-      </c>
-      <c r="P15">
-        <v>0.08702221107873737</v>
-      </c>
-      <c r="Q15">
-        <v>0.2276885701133333</v>
-      </c>
-      <c r="R15">
-        <v>2.04919713102</v>
-      </c>
-      <c r="S15">
-        <v>0.02174226848628308</v>
-      </c>
-      <c r="T15">
-        <v>0.02174226848628308</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>2.827656666666666</v>
-      </c>
-      <c r="H16">
-        <v>8.48297</v>
-      </c>
-      <c r="I16">
-        <v>0.2498473460598554</v>
-      </c>
-      <c r="J16">
-        <v>0.2498473460598555</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.6332446666666667</v>
-      </c>
-      <c r="N16">
-        <v>1.899734</v>
-      </c>
-      <c r="O16">
-        <v>0.6843639135534556</v>
-      </c>
-      <c r="P16">
-        <v>0.6843639135534556</v>
-      </c>
-      <c r="Q16">
-        <v>1.790598503331111</v>
-      </c>
-      <c r="R16">
-        <v>16.11538652998</v>
-      </c>
-      <c r="S16">
-        <v>0.1709865075404672</v>
-      </c>
-      <c r="T16">
-        <v>0.1709865075404672</v>
+        <v>0.1170499067815063</v>
       </c>
     </row>
   </sheetData>
